--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\ctrl-settings\GDPGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/ctrl-settings/GDPGR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C751B1B-A1C4-4BBD-B54E-344DA8F906F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{82108D6C-9D93-EA49-BDBF-1AB650478B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22BC1256-2361-2C43-AB36-4DCED7071E3D}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="840" windowWidth="15615" windowHeight="15645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="GDPGR-alternate" sheetId="2" r:id="rId3"/>
     <sheet name="GDPGR-bau" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,15 +39,33 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
+    <t>GDPGR Alternative Base Case GDP Growth Rate</t>
+  </si>
+  <si>
+    <t>GDPGR BAU GDP Growth Rate</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
     <t>About</t>
   </si>
   <si>
+    <t>This control setting is used to cause the BAU case (and policy cases) to</t>
+  </si>
+  <si>
     <t>reflect broad changes in economic conditions that are not accounted</t>
   </si>
   <si>
+    <t>for in the various input data files that govern energy demand, etc.</t>
+  </si>
+  <si>
     <t>While those files can still be adjusted to produce alternate economic</t>
   </si>
   <si>
+    <t>scenarios with high granularity, this lever provides an easy-to-use,</t>
+  </si>
+  <si>
     <t>one-variable mechanism for making adjustments throughout the</t>
   </si>
   <si>
@@ -57,139 +75,121 @@
     <t>This control lever is generally used to simulate an economic recession</t>
   </si>
   <si>
+    <t>or boom that is so recent that it hasn't been accounted for in the</t>
+  </si>
+  <si>
+    <t>energy use statistics.  It can also be used to test what would happen</t>
+  </si>
+  <si>
+    <t>under a economic growth forecast different from that assumed by the</t>
+  </si>
+  <si>
     <t>broader set of input data.</t>
   </si>
   <si>
-    <t>for in the various input data files that govern energy demand, etc.</t>
-  </si>
-  <si>
-    <t>scenarios with high granularity, this lever provides an easy-to-use,</t>
-  </si>
-  <si>
-    <t>or boom that is so recent that it hasn't been accounted for in the</t>
-  </si>
-  <si>
-    <t>energy use statistics.  It can also be used to test what would happen</t>
-  </si>
-  <si>
-    <t>under a economic growth forecast different from that assumed by the</t>
-  </si>
-  <si>
-    <t>Sources:</t>
-  </si>
-  <si>
-    <t>U.S. GDP Impact of SARC-CoV-2 Pandemic</t>
-  </si>
-  <si>
-    <t>2020, but due to the rapidly evolving nature of the situation,</t>
-  </si>
-  <si>
     <t>2020 SARS-CoV-2 Pandemic</t>
   </si>
   <si>
-    <t>pandemic GDP impact data may become outdated rapidly.</t>
+    <t>As of EPS 3.1, this variable is set up to model the impacts of the 2020</t>
+  </si>
+  <si>
+    <t>The "alternate" GDP growth rate is the one reflecting the pandemic.</t>
+  </si>
+  <si>
+    <t>The "bau" value is the counterfactual (e.g. "no pandemic") GDP growth</t>
+  </si>
+  <si>
+    <t>rate that was assumed by the source for the "alternate" growth rate.</t>
+  </si>
+  <si>
+    <t>Important Note on Time Series Control:</t>
+  </si>
+  <si>
+    <t>In this Excel file, the alternate BAU growth rate should be specified in</t>
+  </si>
+  <si>
+    <t>the year of maximum impact - e.g. 2020 for the pandemic.</t>
+  </si>
+  <si>
+    <t>The BAU (e.g. "no pandemic") growth rate should be specified for that</t>
+  </si>
+  <si>
+    <t>same year.</t>
+  </si>
+  <si>
+    <t>The change in GDP growth rate in other years is handled</t>
+  </si>
+  <si>
+    <t>via the policy implementation schedule mechanism.</t>
+  </si>
+  <si>
+    <t>See the input data file plcy-schd/FoPITY to set the value for other years.</t>
+  </si>
+  <si>
+    <t>GDP Impact</t>
+  </si>
+  <si>
+    <t>GDP Growth Relative to Counterfactual Growth</t>
   </si>
   <si>
     <t>Unit: dimensionless</t>
   </si>
   <si>
-    <t>See the input data file plcy-schd/FoPITY to set the value for other years.</t>
+    <t>Annual Rate</t>
   </si>
   <si>
     <t>Alternative GDP Growth Rate</t>
   </si>
   <si>
-    <t>Annual Rate</t>
-  </si>
-  <si>
     <t>BAU GDP Growth Rate</t>
   </si>
   <si>
-    <t>GDPGR Alternative Base Case GDP Growth Rate</t>
-  </si>
-  <si>
-    <t>GDPGR BAU GDP Growth Rate</t>
-  </si>
-  <si>
-    <t>This control setting is used to cause the BAU case (and policy cases) to</t>
-  </si>
-  <si>
-    <t>Important Note on Time Series Control:</t>
-  </si>
-  <si>
-    <t>the year of maximum impact - e.g. 2020 for the pandemic.</t>
-  </si>
-  <si>
-    <t>The change in GDP growth rate in other years is handled</t>
-  </si>
-  <si>
-    <t>via the policy implementation schedule mechanism.</t>
-  </si>
-  <si>
-    <t>The "alternate" GDP growth rate is the one reflecting the pandemic.</t>
-  </si>
-  <si>
-    <t>rate that was assumed by the source for the "alternate" growth rate.</t>
-  </si>
-  <si>
-    <t>The "bau" value is the counterfactual (e.g. "no pandemic") GDP growth</t>
-  </si>
-  <si>
-    <t>In this Excel file, the alternate BAU growth rate should be specified in</t>
-  </si>
-  <si>
-    <t>The BAU (e.g. "no pandemic") growth rate should be specified for that</t>
-  </si>
-  <si>
-    <t>same year.</t>
-  </si>
-  <si>
-    <t>GDP Impact</t>
-  </si>
-  <si>
-    <t>January STEO</t>
-  </si>
-  <si>
-    <t>Source: Tables 9a, row 1</t>
-  </si>
-  <si>
-    <t>Counterfactual GDP Growth Rate</t>
-  </si>
-  <si>
-    <t>GDP Growth Relative to Counterfactual Growth</t>
-  </si>
-  <si>
-    <t>2020 GDP Prediction</t>
-  </si>
-  <si>
-    <t>January STEO - Adjusted for 2019 value</t>
-  </si>
-  <si>
-    <t>U.S. Energy Information Administration</t>
-  </si>
-  <si>
-    <t>Short-Term Energy Outlook</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/outlooks/steo/</t>
-  </si>
-  <si>
-    <t>Table 9a</t>
-  </si>
-  <si>
-    <t>Real GDP (billion chained 2012 dollars)</t>
-  </si>
-  <si>
-    <t>November STEO</t>
-  </si>
-  <si>
-    <t>January 2020 and November 2020</t>
-  </si>
-  <si>
-    <t>As of EPS 3.1, this variable is set up to model the impacts of the 2020</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 pandemic.  It uses the latest data available as of November 10,</t>
+    <t>November GDP</t>
+  </si>
+  <si>
+    <t>January GDP</t>
+  </si>
+  <si>
+    <t>January GDP - Adjusted for 2019 value</t>
+  </si>
+  <si>
+    <t>Real GDP (million chained 2012 dollars)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-2 pandemic.  It uses the latest data available as of April 2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The US version uses predicted data (as it was made pre-2021), but this file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains actual data. </t>
+  </si>
+  <si>
+    <t>Gross domestic product (GDP) at basic prices, by industry, monthly (x 1,000,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Canada </t>
+  </si>
+  <si>
+    <t>January 2019 to January 2022 (monthly data)</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=3610043401</t>
+  </si>
+  <si>
+    <t>Table 36-10-0434-01</t>
+  </si>
+  <si>
+    <t>Source: Table 36-10-0434-01</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Counterfactual GDP Growth Rate (2020 - 2022)</t>
+  </si>
+  <si>
+    <t>Actual GDP growth rate (2020 - 2022)</t>
   </si>
 </sst>
 </file>
@@ -275,7 +275,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -291,19 +291,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -593,208 +586,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{B3BAB9C7-BF72-264A-A42C-AE8D7B2A3C4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -805,33 +793,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2019</v>
       </c>
@@ -841,161 +829,129 @@
       <c r="D2">
         <v>2021</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>19092</v>
+        <v>1996711</v>
       </c>
       <c r="C3">
-        <v>18411</v>
+        <v>1941301</v>
       </c>
       <c r="D3">
-        <v>19098</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2010462</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>19068</v>
+        <v>1965814</v>
       </c>
       <c r="C4">
-        <v>19448</v>
+        <v>2004924</v>
       </c>
       <c r="D4">
-        <v>19790</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>1948720</v>
+      </c>
+      <c r="E4">
+        <v>2017042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B5">
         <f>B3</f>
-        <v>19092</v>
-      </c>
-      <c r="C5" s="20">
+        <v>1996711</v>
+      </c>
+      <c r="C5" s="15">
         <f>C4*($B$3/$B$4)</f>
-        <v>19472.478288231592</v>
-      </c>
-      <c r="D5" s="20">
+        <v>2036435.697865617</v>
+      </c>
+      <c r="D5" s="15">
         <f>D4*($B$3/$B$4)</f>
-        <v>19814.908747640027</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1979348.3309814662</v>
+      </c>
+      <c r="E5" s="15">
+        <f>E4*($B$3/$B$4)</f>
+        <v>2048744.1583293229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <f>(C3-C5)/C5</f>
-        <v>-5.4511720209394626E-2</v>
+        <v>-4.6716278822516923E-2</v>
       </c>
       <c r="D8" s="5">
         <f>(D3-D5)/D5</f>
-        <v>-3.6180269955843815E-2</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.5719147828369334E-2</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="12">
-        <f>C5/B5-1</f>
-        <v>1.9928676316341543E-2</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="11">
+        <f>E5/B5-1</f>
+        <v>2.6059433903716123E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="12">
-        <f>C3/B3-1</f>
-        <v>-3.5669390320553163E-2</v>
-      </c>
-      <c r="C12" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="B12" s="11">
+        <f>D3/B3-1</f>
+        <v>6.886825384344597E-3</v>
+      </c>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,30 +966,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="22">
-        <f>'GDPGR-bau'!B2</f>
-        <v>1.9928676316341543E-2</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="17">
+        <f>Data!B12</f>
+        <v>6.886825384344597E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1048,31 +1004,351 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="22">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17">
         <f>Data!B11</f>
-        <v>1.9928676316341543E-2</v>
+        <v>2.6059433903716123E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBB6A1BD-6DED-4325-9717-FB44396D2CB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A5504F-8B23-4C42-89B2-FA50BDA2A6D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1AABF7-1970-4FEA-8A68-31C790FCAC7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/ctrl-settings/GDPGR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{82108D6C-9D93-EA49-BDBF-1AB650478B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22BC1256-2361-2C43-AB36-4DCED7071E3D}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{82108D6C-9D93-EA49-BDBF-1AB650478B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB293101-65D8-4823-92CE-3E1BA31ED3CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,6 +49,21 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>Gross domestic product (GDP) at basic prices, by industry, monthly (x 1,000,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Canada </t>
+  </si>
+  <si>
+    <t>January 2019 to January 2022 (monthly data)</t>
+  </si>
+  <si>
+    <t>Table 36-10-0434-01</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=3610043401</t>
+  </si>
+  <si>
     <t>About</t>
   </si>
   <si>
@@ -93,6 +109,15 @@
     <t>As of EPS 3.1, this variable is set up to model the impacts of the 2020</t>
   </si>
   <si>
+    <t xml:space="preserve">SARS-CoV-2 pandemic.  It uses the latest data available as of April 2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The US version uses predicted data (as it was made pre-2021), but this file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains actual data. </t>
+  </si>
+  <si>
     <t>The "alternate" GDP growth rate is the one reflecting the pandemic.</t>
   </si>
   <si>
@@ -126,12 +151,36 @@
     <t>See the input data file plcy-schd/FoPITY to set the value for other years.</t>
   </si>
   <si>
+    <t>Real GDP (million chained 2012 dollars)</t>
+  </si>
+  <si>
+    <t>November GDP</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>January GDP</t>
+  </si>
+  <si>
+    <t>January GDP - Adjusted for 2019 value</t>
+  </si>
+  <si>
+    <t>Source: Table 36-10-0434-01</t>
+  </si>
+  <si>
     <t>GDP Impact</t>
   </si>
   <si>
     <t>GDP Growth Relative to Counterfactual Growth</t>
   </si>
   <si>
+    <t>Counterfactual GDP Growth Rate (2020 - 2022)</t>
+  </si>
+  <si>
+    <t>Actual GDP growth rate (2020 - 2022)</t>
+  </si>
+  <si>
     <t>Unit: dimensionless</t>
   </si>
   <si>
@@ -142,54 +191,6 @@
   </si>
   <si>
     <t>BAU GDP Growth Rate</t>
-  </si>
-  <si>
-    <t>November GDP</t>
-  </si>
-  <si>
-    <t>January GDP</t>
-  </si>
-  <si>
-    <t>January GDP - Adjusted for 2019 value</t>
-  </si>
-  <si>
-    <t>Real GDP (million chained 2012 dollars)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARS-CoV-2 pandemic.  It uses the latest data available as of April 2022. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The US version uses predicted data (as it was made pre-2021), but this file </t>
-  </si>
-  <si>
-    <t xml:space="preserve">contains actual data. </t>
-  </si>
-  <si>
-    <t>Gross domestic product (GDP) at basic prices, by industry, monthly (x 1,000,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics Canada </t>
-  </si>
-  <si>
-    <t>January 2019 to January 2022 (monthly data)</t>
-  </si>
-  <si>
-    <t>https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=3610043401</t>
-  </si>
-  <si>
-    <t>Table 36-10-0434-01</t>
-  </si>
-  <si>
-    <t>Source: Table 36-10-0434-01</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>Counterfactual GDP Growth Rate (2020 - 2022)</t>
-  </si>
-  <si>
-    <t>Actual GDP growth rate (2020 - 2022)</t>
   </si>
 </sst>
 </file>
@@ -201,7 +202,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,198 +587,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -793,21 +794,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -819,7 +820,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2">
         <v>2019</v>
       </c>
@@ -833,14 +834,16 @@
         <v>2022</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8">
+        <v>2018</v>
+      </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>1996711</v>
@@ -852,12 +855,15 @@
         <v>2010462</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>1964629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1965814</v>
@@ -871,10 +877,13 @@
       <c r="E4">
         <v>2017042</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1922693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="48">
       <c r="A5" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <f>B3</f>
@@ -893,17 +902,17 @@
         <v>2048744.1583293229</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5">
         <f>(C3-C5)/C5</f>
@@ -920,9 +929,9 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -934,18 +943,18 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="48">
       <c r="A11" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="11">
         <f>E5/B5-1</f>
         <v>2.6059433903716123E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="11">
         <f>D3/B3-1</f>
@@ -967,25 +976,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.95">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B2" s="17">
         <f>Data!B12</f>
@@ -1005,25 +1014,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.95">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B2" s="17">
         <f>Data!B11</f>
@@ -1036,6 +1045,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -1050,15 +1068,6 @@
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1308,47 +1317,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBB6A1BD-6DED-4325-9717-FB44396D2CB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A5504F-8B23-4C42-89B2-FA50BDA2A6D4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A5504F-8B23-4C42-89B2-FA50BDA2A6D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBB6A1BD-6DED-4325-9717-FB44396D2CB3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1AABF7-1970-4FEA-8A68-31C790FCAC7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1AABF7-1970-4FEA-8A68-31C790FCAC7A}"/>
 </file>